--- a/trend_results/Contact_Recreation/MangawhararikiatRuahineDressCircle_ba07d225b5.xlsx
+++ b/trend_results/Contact_Recreation/MangawhararikiatRuahineDressCircle_ba07d225b5.xlsx
@@ -97,7 +97,7 @@
     <t>RepSite</t>
   </si>
   <si>
-    <t>Unlikely improving</t>
+    <t>Likely improving</t>
   </si>
   <si>
     <t>Manawatu District</t>
@@ -564,31 +564,31 @@
         <v>25</v>
       </c>
       <c r="F2">
-        <v>0.106515074680099</v>
+        <v>0.733162827643706</v>
       </c>
       <c r="G2">
-        <v>0.0254237288135593</v>
+        <v>0.0163934426229508</v>
       </c>
       <c r="H2">
-        <v>0.508474576271186</v>
+        <v>0.5</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>98</v>
       </c>
       <c r="K2">
-        <v>6.06224066390041</v>
+        <v>-1.24234693877551</v>
       </c>
       <c r="L2">
-        <v>-0.55646291525221</v>
+        <v>-10.9888729079765</v>
       </c>
       <c r="M2">
-        <v>17.0401283937689</v>
+        <v>5.25196078431373</v>
       </c>
       <c r="N2">
-        <v>6.18595986112287</v>
+        <v>-1.26770095793419</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
